--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H2">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>9.993156677877074</v>
+        <v>14.58397638733022</v>
       </c>
       <c r="R2">
-        <v>9.993156677877074</v>
+        <v>131.255787485972</v>
       </c>
       <c r="S2">
-        <v>0.00393091082109639</v>
+        <v>0.005233957458222153</v>
       </c>
       <c r="T2">
-        <v>0.00393091082109639</v>
+        <v>0.005233957458222153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H3">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>11.54532860410179</v>
+        <v>14.37421617434356</v>
       </c>
       <c r="R3">
-        <v>11.54532860410179</v>
+        <v>129.367945569092</v>
       </c>
       <c r="S3">
-        <v>0.004541473590967316</v>
+        <v>0.00515867784983266</v>
       </c>
       <c r="T3">
-        <v>0.004541473590967316</v>
+        <v>0.00515867784983266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H4">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J4">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>1.678430844739289</v>
+        <v>2.145506408268778</v>
       </c>
       <c r="R4">
-        <v>1.678430844739289</v>
+        <v>19.309557674419</v>
       </c>
       <c r="S4">
-        <v>0.0006602280123010381</v>
+        <v>0.0007699881684516007</v>
       </c>
       <c r="T4">
-        <v>0.0006602280123010381</v>
+        <v>0.0007699881684516007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H5">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>154.0252705723596</v>
+        <v>181.3673159061627</v>
       </c>
       <c r="R5">
-        <v>154.0252705723596</v>
+        <v>1632.305843155464</v>
       </c>
       <c r="S5">
-        <v>0.06058742220619424</v>
+        <v>0.06508984864988313</v>
       </c>
       <c r="T5">
-        <v>0.06058742220619424</v>
+        <v>0.06508984864988311</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H6">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J6">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>177.9490124507238</v>
+        <v>178.7587237223227</v>
       </c>
       <c r="R6">
-        <v>177.9490124507238</v>
+        <v>1608.828513500904</v>
       </c>
       <c r="S6">
-        <v>0.06999807179992769</v>
+        <v>0.0641536663527196</v>
       </c>
       <c r="T6">
-        <v>0.06999807179992769</v>
+        <v>0.06415366635271959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H7">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J7">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>25.86978002359138</v>
+        <v>26.68166268187533</v>
       </c>
       <c r="R7">
-        <v>25.86978002359138</v>
+        <v>240.134964136878</v>
       </c>
       <c r="S7">
-        <v>0.01017614368633333</v>
+        <v>0.009575624896985579</v>
       </c>
       <c r="T7">
-        <v>0.01017614368633333</v>
+        <v>0.009575624896985577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J8">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>930.209184031777</v>
+        <v>1110.54949742002</v>
       </c>
       <c r="R8">
-        <v>930.209184031777</v>
+        <v>9994.945476780176</v>
       </c>
       <c r="S8">
-        <v>0.3659073369167419</v>
+        <v>0.3985585734900136</v>
       </c>
       <c r="T8">
-        <v>0.3659073369167419</v>
+        <v>0.3985585734900135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J9">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>1074.692516727533</v>
+        <v>1094.576549238793</v>
       </c>
       <c r="R9">
-        <v>1074.692516727533</v>
+        <v>9851.188943149136</v>
       </c>
       <c r="S9">
-        <v>0.4227413398518854</v>
+        <v>0.392826136118848</v>
       </c>
       <c r="T9">
-        <v>0.4227413398518854</v>
+        <v>0.392826136118848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.768741529568</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>151.768741529568</v>
+        <v>461.823868</v>
       </c>
       <c r="I10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239053</v>
       </c>
       <c r="J10">
-        <v>0.8501057498831799</v>
+        <v>0.8500182366239052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>156.2360960471179</v>
+        <v>163.3773259180724</v>
       </c>
       <c r="R10">
-        <v>156.2360960471179</v>
+        <v>1470.395933262652</v>
       </c>
       <c r="S10">
-        <v>0.06145707311455258</v>
+        <v>0.05863352701504374</v>
       </c>
       <c r="T10">
-        <v>0.06145707311455258</v>
+        <v>0.05863352701504373</v>
       </c>
     </row>
   </sheetData>
